--- a/Project_python/out/NMF/test_nmf_training_files.xlsx
+++ b/Project_python/out/NMF/test_nmf_training_files.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.87|x2: 0.00|x3: 0.03|x4: 0.02|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.41|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.89|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.43|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.66|x2: 0.00|x3: 0.00|x4: 0.03|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.41|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 1.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.35|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.00|x8: 0.14|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -665,19 +665,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.35]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[1, 6]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 1.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.41|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.39|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.43|x14: 0.00|x15: 0.02|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -747,19 +747,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.43]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -778,7 +778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.93|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.37|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.95|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.32|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.79|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.02|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.27|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.72|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -979,7 +979,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.71|x2: 0.00|x3: 0.05|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.31|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.69|x2: 0.00|x3: 0.01|x4: 0.01|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.36|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.69]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.45|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.04|x7: 0.00|x8: 0.02|x9: 0.00|x10: 0.03|x11: 0.10|x12: 0.08|x13: 0.13|x14: 0.00|x15: 0.04|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.31|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.45]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.84|x2: 0.05|x3: 0.00|x4: 0.03|x5: 0.03|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.31|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.46|x2: 0.11|x3: 0.08|x4: 0.16|x5: 0.00|x6: 0.03|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.03|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.46]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.66|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.00|x13: 0.11|x14: 0.08|x15: 0.07|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.53|x3: 0.09|x4: 0.08|x5: 0.04|x6: 0.00|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.04|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.53]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.73|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.06|x14: 0.00|x15: 0.08|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.40|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.95|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.71|x3: 0.00|x4: 0.06|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.80|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.11|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.88|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.33|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 1.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.79|x3: 0.06|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.93|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.90|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.86|x3: 0.03|x4: 0.05|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.91|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.76|x3: 0.00|x4: 0.00|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.76]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.82|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.13|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.90|x3: 0.00|x4: 0.02|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.47|x3: 0.18|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.20|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.47]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.58|x4: 0.13|x5: 0.00|x6: 0.03|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.58]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.54|x4: 0.15|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.08|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.96|x4: 0.00|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.55|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.04|x12: 0.10|x13: 0.09|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.55]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.00|x3: 0.70|x4: 0.03|x5: 0.02|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.22|x2: 0.00|x3: 0.66|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2133,19 +2133,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.92|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.79|x4: 0.05|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.92|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.88|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.73|x4: 0.03|x5: 0.00|x6: 0.13|x7: 0.11|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.91|x4: 0.00|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.80|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.89|x4: 0.06|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.35|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.72|x4: 0.04|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.04|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.87|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.77|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.05|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.98|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.33|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.67|x4: 0.08|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.90|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.71|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.06|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 1.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.72|x4: 0.00|x5: 0.06|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.81|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.60|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.05|x8: 0.00|x9: 0.00|x10: 0.22|x11: 0.00|x12: 0.03|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3134,19 +3134,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.60]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.55|x4: 0.00|x5: 0.19|x6: 0.14|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.06|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.55]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.89|x5: 0.05|x6: 0.03|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.77|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.04|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.09|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.00|x4: 0.71|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.05|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.03|x4: 0.89|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.35|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.81|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.35|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.87|x5: 0.04|x6: 0.08|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.96|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 1.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.42|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.95|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.91|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.91|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.97|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.36|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.54|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.14|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.69|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.14|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.37|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.69]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.92|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.07|x5: 0.93|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.97|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.82|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.12|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.33|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.63|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.63]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.07|x4: 0.06|x5: 0.77|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.95|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.81|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.03|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.83|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 1.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.31|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.93|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.03|x5: 0.83|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.83|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 1.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.96|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.09|x4: 0.00|x5: 0.59|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.02|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.30|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.59]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.97|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.78|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.04|x4: 0.02|x5: 0.00|x6: 0.72|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.01|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.36|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.07|x6: 0.84|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.39|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.90|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.08|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.40|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.14|x4: 0.00|x5: 0.02|x6: 0.60|x7: 0.04|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.03|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.60]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.02|x4: 0.00|x5: 0.02|x6: 0.73|x7: 0.00|x8: 0.04|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.03|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.13|x5: 0.00|x6: 0.87|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.38|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.98|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.33|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.02|x4: 0.03|x5: 0.00|x6: 0.82|x7: 0.00|x8: 0.01|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.01|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.43|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 1.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.37|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.92|x7: 0.03|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.34|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.93|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.89|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.07|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.43|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.04|x5: 0.04|x6: 0.86|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.36|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.92|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.04|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.77|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.03|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.37|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.91|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.44|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.04|x4: 0.08|x5: 0.00|x6: 0.02|x7: 0.77|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.32|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.07|x6: 0.05|x7: 0.86|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.26|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.95|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.04|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.33|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.89|x8: 0.05|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.40|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 1.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.38|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.07|x7: 0.77|x8: 0.03|x9: 0.01|x10: 0.00|x11: 0.07|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.39|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.88|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.10|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.37|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 1.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.44|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.83|x8: 0.00|x9: 0.04|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.41|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.68|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.26|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.68]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.68|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.05|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.35|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.68]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.51|x9: 0.00|x10: 0.04|x11: 0.00|x12: 0.42|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.51]</t>
+          <t>[0.00, 0.03, 0.25]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.01|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.70|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.07|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.47|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.07|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6161,19 +6161,19 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.47]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.92|x9: 0.00|x10: 0.00|x11: 0.06|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.41|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.06|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.91|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.31|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.98|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.40|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 1.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.44|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.95|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.82|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.92|x9: 0.06|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.41|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.06|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.75|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.37|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.72|x9: 0.16|x10: 0.08|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.58|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.58]</t>
+          <t>[0.00, 0.03, 0.32]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.70|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.13|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.35|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.71|x9: 0.09|x10: 0.07|x11: 0.00|x12: 0.10|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.02|x5: 0.01|x6: 0.06|x7: 0.12|x8: 0.00|x9: 0.75|x10: 0.00|x11: 0.00|x12: 0.01|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.04|x8: 0.07|x9: 0.48|x10: 0.12|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.08|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6735,19 +6735,19 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.48]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.03|x5: 0.00|x6: 0.06|x7: 0.04|x8: 0.02|x9: 0.48|x10: 0.19|x11: 0.04|x12: 0.08|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.22|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.48]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.04|x3: 0.00|x4: 0.05|x5: 0.00|x6: 0.19|x7: 0.03|x8: 0.12|x9: 0.26|x10: 0.02|x11: 0.02|x12: 0.06|x13: 0.05|x14: 0.02|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.13|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6854,19 +6854,19 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 1.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.98|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.02|x9: 0.98|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.38|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.98|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.44|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.81|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.91|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.00|x9: 0.75|x10: 0.04|x11: 0.06|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.73|x10: 0.12|x11: 0.02|x12: 0.12|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.85|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>x1: 0.39|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.61|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7375,19 +7375,19 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.61]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>x1: 0.26|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.24|x11: 0.13|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7416,19 +7416,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>[0.00, 0.01, 0.08]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[1, 5, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.78|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7457,19 +7457,19 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>x1: 0.25|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.27|x6: 0.02|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.16|x12: 0.00|x13: 0.10|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7498,12 +7498,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H175" t="b">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>x1: 0.43|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.27|x11: 0.06|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7539,19 +7539,19 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.43]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.00|x10: 0.63|x11: 0.00|x12: 0.00|x13: 0.04|x14: 0.00|x15: 0.00|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7617,19 +7617,19 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.63]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 1.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7658,19 +7658,19 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 1.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.13|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7699,19 +7699,19 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 1.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7740,19 +7740,19 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.39|x9: 0.00|x10: 0.54|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7818,19 +7818,19 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.95|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7859,19 +7859,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.32|x11: 0.10|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7937,19 +7937,19 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.32]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.85|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.16|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7978,19 +7978,19 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>x1: 0.40|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.46|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8019,19 +8019,19 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.46]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.95|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.13|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.62|x12: 0.06|x13: 0.02|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.35|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.62]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.01|x7: 0.00|x8: 0.02|x9: 0.00|x10: 0.00|x11: 0.61|x12: 0.09|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.35|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8142,12 +8142,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.61]</t>
+          <t>[0.00, 0.03, 0.35]</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="H191" t="b">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.12|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.66|x12: 0.03|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.89|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.97|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.43|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.98|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.34|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.89|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.40|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 1.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.46|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.46]</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.98|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.41|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.06|x9: 0.06|x10: 0.00|x11: 0.75|x12: 0.06|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.38|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.02|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.83|x12: 0.06|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.36|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.02|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.75|x12: 0.05|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.42|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.01|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.52|x12: 0.08|x13: 0.32|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8667,12 +8667,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.52]</t>
+          <t>[0.00, 0.03, 0.27]</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="H204" t="b">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.72|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.40|x7: 0.40|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.14|x7: 0.13|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.40]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[6, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H207" t="b">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.21|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.27|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.44|x13: 0.00|x14: 0.06|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.09|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.12|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.19|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8827,19 +8827,19 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.44]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[2, 7, 12]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.94|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.11|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.70|x13: 0.03|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.03|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.75|x13: 0.00|x14: 0.10|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.96|x13: 0.02|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.04|x11: 0.00|x12: 0.91|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.93|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.01|x10: 0.00|x11: 0.00|x12: 0.99|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.42|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.98|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.46|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.03, 0.46]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.04|x12: 0.75|x13: 0.07|x14: 0.01|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.43|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.86|x13: 0.03|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.34|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.11|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.75|x14: 0.03|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.31|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.92|x14: 0.08|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.36|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.06|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.81|x14: 0.11|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.29|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.89|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.41|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.11|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.18|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.66|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.26|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.66|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9631,12 +9631,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="H228" t="b">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.01|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.99|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.40|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.99|x14: 0.00|x15: 0.00|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.44|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 1.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.46|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.46]</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.02|x13: 0.87|x14: 0.02|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.47|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.03, 0.47]</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.98|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.44|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.95|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.48|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.06|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.05|x13: 0.88|x14: 0.01|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.42|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.05|x6: 0.00|x7: 0.13|x8: 0.02|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.74|x14: 0.04|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.34|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.04|x9: 0.09|x10: 0.00|x11: 0.07|x12: 0.00|x13: 0.65|x14: 0.05|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.88|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.98|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.36|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.83|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.08|x14: 0.71|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.07|x12: 0.05|x13: 0.12|x14: 0.55|x15: 0.07|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.55]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 1.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.38|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.03|x11: 0.00|x12: 0.03|x13: 0.05|x14: 0.58|x15: 0.16|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.58]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.96|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.42|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.93|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.46|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.03, 0.46]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.87|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.40|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.89|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.01|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.95|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.39|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.79|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.05|x13: 0.00|x14: 0.93|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.40|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.96|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.32|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.74|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.29|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.24|x14: 0.64|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10771,12 +10771,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.64]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H256" t="b">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.20|x14: 0.02|x15: 0.67|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.19|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -10812,19 +10812,19 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.84|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.20|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.05|x13: 0.00|x14: 0.09|x15: 0.70|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.25|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.09|x13: 0.06|x14: 0.02|x15: 0.75|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.35|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.75]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.29|x14: 0.00|x15: 0.65|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.20|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -10976,12 +10976,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="H261" t="b">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.20|x14: 0.13|x15: 0.50|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.23|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11017,12 +11017,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.50]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="H262" t="b">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 1.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.31|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.06|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.94|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 1.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.21|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 1.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.32|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.90|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.87|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.94|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.95|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.26|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.05|x13: 0.00|x14: 0.00|x15: 0.93|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.00|x12: 0.10|x13: 0.05|x14: 0.06|x15: 0.63|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.27|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.63]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.84|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.30|x17: 0.00</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.04|x3: 0.05|x4: 0.15|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.69|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.69]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.03|x12: 0.15|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.71|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.30|x17: 0.00</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.06|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.71|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.97|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.94|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.97|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.98|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.35|x17: 0.00</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 1.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.83|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.06|x4: 0.03|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.78|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.93|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.35|x17: 0.00</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.86|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.03|x4: 0.06|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.07|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.83|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.92|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.35|x17: 0.00</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.10|x12: 0.04|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.82|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.07|x12: 0.09|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.77|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.03|x5: 0.19|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.74|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>x1: 0.79|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12243,12 +12243,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H292" t="b">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>x1: 0.65|x2: 0.00|x3: 0.05|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>x1: 0.86|x2: 0.02|x3: 0.04|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.86]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>x1: 0.80|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.30|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>x1: 0.95|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.38|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>x1: 0.98|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.40|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>x1: 0.35|x2: 0.02|x3: 0.02|x4: 0.03|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.02|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.47|x14: 0.00|x15: 0.00|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -12489,19 +12489,19 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.47]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="H298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>x1: 0.97|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>x1: 0.67|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.00|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>x1: 0.88|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.32|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>x1: 0.33|x2: 0.09|x3: 0.05|x4: 0.02|x5: 0.00|x6: 0.03|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.05|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12653,19 +12653,19 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.33]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.82|x3: 0.02|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.37|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.97|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.92|x3: 0.06|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.38|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.81|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.02|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.94|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.95|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.78|x3: 0.04|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.65|x3: 0.08|x4: 0.08|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.66|x3: 0.04|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.46|x3: 0.10|x4: 0.00|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13063,19 +13063,19 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.46]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[2, 8]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.80|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 1.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.67|x4: 0.07|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13186,19 +13186,19 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.69|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.03|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.69]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.96|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.90|x4: 0.05|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.35|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.80|x4: 0.00|x5: 0.04|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.91|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.06|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -13422,7 +13422,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.78|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.03|x8: 0.00|x9: 0.08|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.91|x4: 0.00|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.80|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.00|x3: 0.85|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.91|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.81|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.81|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.05|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.81|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.72|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.04|x8: 0.02|x9: 0.00|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -13760,7 +13760,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.59|x4: 0.11|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.59]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.83|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.06|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.87|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>x1: 0.24|x2: 0.00|x3: 0.49|x4: 0.00|x5: 0.05|x6: 0.08|x7: 0.03|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -13924,12 +13924,12 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.49]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="H333" t="b">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.67|x4: 0.04|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.09|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.72|x4: 0.04|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.04|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.66|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.92|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.64|x4: 0.03|x5: 0.00|x6: 0.03|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.64]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.88|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.80|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.07|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.94|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 1.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.42|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -14324,7 +14324,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.97|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.97|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.01|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.89|x5: 0.03|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.79|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.78|x5: 0.00|x6: 0.05|x7: 0.02|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.36|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.04|x3: 0.03|x4: 0.74|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.00|x4: 0.64|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.64]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.00|x4: 0.71|x5: 0.00|x6: 0.13|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.77|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.04|x5: 0.91|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 1.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -14775,7 +14775,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.92|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 1.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.03|x5: 0.97|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.67|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.05|x10: 0.02|x11: 0.05|x12: 0.00|x13: 0.02|x14: 0.03|x15: 0.12|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.08|x5: 0.85|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.50|x6: 0.04|x7: 0.00|x8: 0.08|x9: 0.09|x10: 0.03|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -15027,7 +15027,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.50]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.70|x6: 0.00|x7: 0.00|x8: 0.06|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.19|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -15068,19 +15068,19 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.03|x5: 0.88|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -15140,7 +15140,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.03|x5: 0.46|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.06|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.12|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.46]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.98|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.36|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -15222,7 +15222,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.93|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.90|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.40|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.40]</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.95|x7: 0.00|x8: 0.02|x9: 0.01|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.39|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.04|x5: 0.00|x6: 0.90|x7: 0.00|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.38|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -15355,7 +15355,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.90|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.34|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.03|x5: 0.00|x6: 0.94|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.66|x7: 0.00|x8: 0.02|x9: 0.04|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.02|x15: 0.04|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.33|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.85|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.04|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.71|x7: 0.03|x8: 0.04|x9: 0.06|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.54|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.11|x15: 0.23|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -15601,12 +15601,12 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H374" t="b">
@@ -15632,7 +15632,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.03|x7: 0.67|x8: 0.01|x9: 0.00|x10: 0.00|x11: 0.19|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.29|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -15642,7 +15642,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -15673,7 +15673,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 1.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.38|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.98|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.38|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.92|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.38|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.88|x8: 0.06|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.41|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.12|x4: 0.03|x5: 0.00|x6: 0.04|x7: 0.65|x8: 0.04|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.32|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.00|x3: 0.04|x4: 0.02|x5: 0.00|x6: 0.02|x7: 0.77|x8: 0.04|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.36|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.94|x8: 0.04|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.31|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.93|x9: 0.04|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.44|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -16038,7 +16038,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.05|x4: 0.06|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.65|x9: 0.02|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 1.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.44|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.06|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.81|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -16130,7 +16130,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.81]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 1.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.48|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -16202,7 +16202,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.99|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.01|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.42|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.06|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.90|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.04|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.88|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.31|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.00|x3: 0.05|x4: 0.10|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.65|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.04|x3: 0.03|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.56|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.56]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -16407,7 +16407,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.00|x3: 0.00|x4: 0.06|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.65|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.04|x14: 0.00|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.44|x9: 0.07|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.02|x15: 0.05|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.44]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.88|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.06|x9: 0.73|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16577,7 +16577,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.97|x10: 0.01|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.44|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.01|x8: 0.00|x9: 0.94|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.05|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -16764,7 +16764,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 1.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -16805,7 +16805,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.96|x10: 0.00|x11: 0.01|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.38|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.78|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.30|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.84|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.03|x7: 0.02|x8: 0.13|x9: 0.58|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.58]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 1.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.65|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.10|x14: 0.08|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -17020,7 +17020,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.65]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.91|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.04|x9: 0.00|x10: 0.96|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -17102,19 +17102,19 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.39|x9: 0.00|x10: 0.54|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -17143,19 +17143,19 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -17174,7 +17174,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.92|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -17184,19 +17184,19 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 1.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -17225,19 +17225,19 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 1.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -17266,19 +17266,19 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.00|x10: 0.52|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -17307,19 +17307,19 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.52]</t>
+          <t>[0.00, 0.01, 0.09]</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.92|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -17348,19 +17348,19 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.04|x6: 0.05|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.28|x11: 0.07|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -17389,19 +17389,19 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.32]</t>
+          <t>[0.00, 0.01, 0.10]</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.10|x6: 0.03|x7: 0.00|x8: 0.04|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.05|x16: 0.42|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -17467,12 +17467,12 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.42]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H420" t="b">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.06|x10: 0.09|x11: 0.04|x12: 0.00|x13: 0.10|x14: 0.00|x15: 0.06|x16: 0.54|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -17508,12 +17508,12 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H421" t="b">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.88|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -17549,19 +17549,19 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -17580,7 +17580,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.91|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.01|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.44|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.87|x12: 0.06|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.37|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 1.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.46|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.46]</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.90|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.41|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -17744,7 +17744,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 1.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.41|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.98|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.35|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.90|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.31|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.82|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.32|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.00|x11: 0.76|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.35|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.76]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.98|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.43|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -17959,7 +17959,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.03, 0.43]</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -18027,7 +18027,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.02|x11: 0.00|x12: 0.91|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.08|x10: 0.05|x11: 0.00|x12: 0.87|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.33|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -18109,7 +18109,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.99|x13: 0.00|x14: 0.00|x15: 0.01|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.93|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.03|x8: 0.00|x9: 0.06|x10: 0.00|x11: 0.00|x12: 0.72|x13: 0.08|x14: 0.03|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.13|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.61|x13: 0.04|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.61]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.96|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.47|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.03, 0.47]</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.97|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.44|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -18429,7 +18429,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 1.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.48|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.94|x14: 0.00|x15: 0.01|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.48|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -18480,7 +18480,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.01|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.99|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.41|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.99]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.84|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.39|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.02|x9: 0.03|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.80|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.35|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.82|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.37|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.07|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.84|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.33|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.02|x14: 0.82|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.36|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.82]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.96|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.36|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.96]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.94|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.48|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -18845,7 +18845,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -18913,7 +18913,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.94|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.48|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -18923,7 +18923,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.03, 0.48]</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 1.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.39|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -18964,7 +18964,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.01|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.74|x15: 0.14|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.80|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.32|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.89|x15: 0.06|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.34|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -19087,7 +19087,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.89]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -19118,7 +19118,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.05|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.05|x12: 0.00|x13: 0.03|x14: 0.54|x15: 0.12|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.54]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.04|x9: 0.06|x10: 0.02|x11: 0.00|x12: 0.05|x13: 0.09|x14: 0.66|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -19169,7 +19169,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.66]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.98|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.31|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.83|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.23|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.83]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 1.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.33|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.15|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.78|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -19333,7 +19333,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.78]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.02|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.98|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.03|x15: 0.97|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.32|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.05|x13: 0.02|x14: 0.00|x15: 0.71|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.27|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.71]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.00|x11: 0.04|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.84|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.33|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.19|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.12|x13: 0.10|x14: 0.00|x15: 0.56|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.26|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -19538,7 +19538,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.56]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.05|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.88|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -19610,7 +19610,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.04|x5: 0.03|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.72|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.72]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.06|x10: 0.09|x11: 0.00|x12: 0.05|x13: 0.04|x14: 0.00|x15: 0.39|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.19|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -19661,19 +19661,19 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.39]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>[15, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.97|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.97]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.04|x9: 0.03|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.85|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.92|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.30|x17: 0.00</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -19784,7 +19784,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.92]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.02|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.90|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.37|x17: 0.00</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.90]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -19893,7 +19893,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 1.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.95|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.95]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 1.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 1.00]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.03|x4: 0.05|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.87|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.35|x17: 0.00</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.87]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.98|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.98|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.91|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -20149,7 +20149,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.91]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -20180,7 +20180,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.98|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.98]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.00|x3: 0.07|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.80|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -20262,7 +20262,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.05|x6: 0.03|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.00|x13: 0.02|x14: 0.00|x15: 0.02|x16: 0.77|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.06|x5: 0.00|x6: 0.03|x7: 0.00|x8: 0.00|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.04|x16: 0.74|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -20313,7 +20313,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.73|x11: 0.00|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -20354,19 +20354,19 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.73]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.01|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.53|x12: 0.11|x13: 0.20|x14: 0.00|x15: 0.01|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.32|x12: 0.06|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.53]</t>
+          <t>[0.00, 0.03, 0.32]</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -20500,7 +20500,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.88|x13: 0.02|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.44|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.88]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.01|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.00|x12: 0.02|x13: 0.52|x14: 0.43|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.28|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.52]</t>
+          <t>[0.00, 0.03, 0.28]</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.80|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.80]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.10|x13: 0.04|x14: 0.00|x15: 0.77|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.39|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.77]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.02|x15: 0.02|x16: 0.74|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -20785,7 +20785,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.74]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>x1: 0.70|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.12|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.41|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.70]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.84|x3: 0.00|x4: 0.00|x5: 0.01|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.02|x13: 0.04|x14: 0.00|x15: 0.05|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.44|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.84]</t>
+          <t>[0.00, 0.03, 0.44]</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.93|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.93]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.43|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.22|x11: 0.03|x12: 0.13|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -21023,19 +21023,19 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.43]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.67|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.03|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.09|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.41|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.67]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -21132,7 +21132,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.79|x6: 0.00|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.79]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -21173,7 +21173,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.01|x6: 0.85|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.41|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -21183,7 +21183,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.85]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.94|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.42|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.94]</t>
+          <t>[0.00, 0.02, 0.42]</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.58|x9: 0.05|x10: 0.03|x11: 0.00|x12: 0.34|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.31|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -21265,12 +21265,12 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.58]</t>
+          <t>[0.00, 0.03, 0.31]</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H514" t="b">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.48|x10: 0.20|x11: 0.02|x12: 0.19|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.08|x11: 0.00|x12: 0.07|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -21343,19 +21343,19 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.48]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">

--- a/Project_python/out/NMF/test_nmf_training_files.xlsx
+++ b/Project_python/out/NMF/test_nmf_training_files.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
